--- a/dataset/espza_tag_ref.xlsx
+++ b/dataset/espza_tag_ref.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Acevedo\Documents\CODIGOS\DEGRADACION\GIT\Esperanza\EsperanzaCurves\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5C8270-6E61-457D-B376-4FDBE59AFB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFA72CA-7850-4431-AF2A-1140862EE34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2E989F6D-A17C-4462-AB52-36424982D7F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{2E989F6D-A17C-4462-AB52-36424982D7F9}"/>
   </bookViews>
   <sheets>
     <sheet name="tags_disp" sheetId="2" r:id="rId1"/>
-    <sheet name="pot_dc" sheetId="8" r:id="rId2"/>
-    <sheet name="reactiva" sheetId="7" r:id="rId3"/>
-    <sheet name="cosfi" sheetId="6" r:id="rId4"/>
-    <sheet name="pot" sheetId="4" r:id="rId5"/>
-    <sheet name="irr" sheetId="5" r:id="rId6"/>
-    <sheet name="temp_igbt" sheetId="1" r:id="rId7"/>
-    <sheet name="temp_cpu" sheetId="3" r:id="rId8"/>
+    <sheet name="fase1" sheetId="9" r:id="rId2"/>
+    <sheet name="fase2" sheetId="10" r:id="rId3"/>
+    <sheet name="fase3" sheetId="11" r:id="rId4"/>
+    <sheet name="pot_dc" sheetId="8" r:id="rId5"/>
+    <sheet name="reactiva" sheetId="7" r:id="rId6"/>
+    <sheet name="cosfi" sheetId="6" r:id="rId7"/>
+    <sheet name="pot" sheetId="4" r:id="rId8"/>
+    <sheet name="irr" sheetId="5" r:id="rId9"/>
+    <sheet name="temp_igbt" sheetId="1" r:id="rId10"/>
+    <sheet name="temp_cpu" sheetId="3" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="191">
   <si>
     <t>Nombre tag</t>
   </si>
@@ -580,6 +583,42 @@
   </si>
   <si>
     <t>PASEPZA.MB0404.MSE06.DINV1.Watt.mag.f.Value</t>
+  </si>
+  <si>
+    <t>Vol. Fase U12</t>
+  </si>
+  <si>
+    <t>Vol. Fase U23</t>
+  </si>
+  <si>
+    <t>Vol. Fase U31</t>
+  </si>
+  <si>
+    <t>espza_fase1.pk</t>
+  </si>
+  <si>
+    <t>espza_fase2.pk</t>
+  </si>
+  <si>
+    <t>espza_fase3.pk</t>
+  </si>
+  <si>
+    <t>PASEPZA.2.PASEPZA.ESPERANZA.FEEDERS_BREAKER_002.BREAKER.VOLTAGE_UAB.Value</t>
+  </si>
+  <si>
+    <t>PASEPZA.2.PASEPZA.ESPERANZA.FEEDERS_BREAKER_002.BREAKER.VOLTAGE_UCA.Value</t>
+  </si>
+  <si>
+    <t>PASEPZA.2.PASEPZA.ESPERANZA.FEEDERS_BREAKER_002.BREAKER.VOLTAGE_UBC.Value</t>
+  </si>
+  <si>
+    <t>fase1</t>
+  </si>
+  <si>
+    <t>fase2</t>
+  </si>
+  <si>
+    <t>fase3</t>
   </si>
 </sst>
 </file>
@@ -953,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87DD3D3-B63A-4D83-A9F6-55A1B50A1602}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1049,18 +1088,265 @@
         <v>154</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBAA5AE-0A53-4CA2-A823-63664D4CB562}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C9B675-647B-41E2-B00D-68B84D635BDF}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1943FDC4-A153-4570-AAAA-9174755A8FFF}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,7 +1356,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1078,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1086,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1094,7 +1380,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1102,7 +1388,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1110,7 +1396,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1118,7 +1404,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1126,7 +1412,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1134,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1142,7 +1428,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1150,7 +1436,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1158,7 +1444,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>165</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1166,7 +1452,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1174,7 +1460,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1182,7 +1468,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1190,7 +1476,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1198,7 +1484,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1206,7 +1492,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1214,7 +1500,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1222,7 +1508,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1230,7 +1516,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1238,7 +1524,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1246,7 +1532,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1254,7 +1540,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1262,7 +1548,222 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>178</v>
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1CCFA5-375F-4BBF-BC65-BD428F1FC770}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1271,6 +1772,651 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DD5DF9-7E4C-448B-8F8F-2FA182D36D4F}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22EEFAA-CF83-4BD1-A549-12AD18C3E778}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBAA5AE-0A53-4CA2-A823-63664D4CB562}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D404DE-FB33-40B3-B49F-C325F9C0F549}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -1485,7 +2631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C68337-7DFC-483C-ADEF-EDFA3E2C0117}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -1700,7 +2846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4D95F4-1BF1-4C71-83F9-CD2FC9937207}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -1915,7 +3061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C27525-1748-4685-93A7-CB5632A08C0C}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1968,433 +3114,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C9B675-647B-41E2-B00D-68B84D635BDF}">
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1943FDC4-A153-4570-AAAA-9174755A8FFF}">
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>